--- a/data/pca/factorExposure/factorExposure_2011-11-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01041631288658376</v>
+        <v>0.01174649306250503</v>
       </c>
       <c r="C2">
-        <v>-0.03104872311675616</v>
+        <v>0.02146146789989105</v>
       </c>
       <c r="D2">
-        <v>-0.01788400884689767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02392162510887742</v>
+      </c>
+      <c r="E2">
+        <v>0.01086310896942672</v>
+      </c>
+      <c r="F2">
+        <v>-0.02902536355212377</v>
+      </c>
+      <c r="G2">
+        <v>-0.0003062295163404215</v>
+      </c>
+      <c r="H2">
+        <v>0.02390582518307494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07375763465159703</v>
+        <v>0.08801575655639923</v>
       </c>
       <c r="C4">
-        <v>-0.06049110586862842</v>
+        <v>0.03057137069571341</v>
       </c>
       <c r="D4">
-        <v>-0.07010686892341861</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07471214053675888</v>
+      </c>
+      <c r="E4">
+        <v>0.009068723288402195</v>
+      </c>
+      <c r="F4">
+        <v>-0.04019015869354792</v>
+      </c>
+      <c r="G4">
+        <v>0.01910241679083744</v>
+      </c>
+      <c r="H4">
+        <v>-0.04055822475353622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1099480538647994</v>
+        <v>0.1226774720069828</v>
       </c>
       <c r="C6">
-        <v>-0.06424879225443844</v>
+        <v>0.04365733008730872</v>
       </c>
       <c r="D6">
-        <v>0.002463606201322797</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01823257089581121</v>
+      </c>
+      <c r="E6">
+        <v>-0.02987632600343182</v>
+      </c>
+      <c r="F6">
+        <v>-0.04823808018165556</v>
+      </c>
+      <c r="G6">
+        <v>0.03651038965220064</v>
+      </c>
+      <c r="H6">
+        <v>0.1300426606866124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0543800717746945</v>
+        <v>0.06469705040326809</v>
       </c>
       <c r="C7">
-        <v>-0.03854444942086807</v>
+        <v>0.01507878054930526</v>
       </c>
       <c r="D7">
-        <v>-0.03066817204216058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05278391603985538</v>
+      </c>
+      <c r="E7">
+        <v>0.03253018091494749</v>
+      </c>
+      <c r="F7">
+        <v>-0.04331399405637028</v>
+      </c>
+      <c r="G7">
+        <v>-0.02818766213814971</v>
+      </c>
+      <c r="H7">
+        <v>-0.01553297516963827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04059656495170505</v>
+        <v>0.04463657389542577</v>
       </c>
       <c r="C8">
-        <v>-0.01769012790388468</v>
+        <v>0.008605669943576652</v>
       </c>
       <c r="D8">
-        <v>-0.0622823281160742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02807959433466576</v>
+      </c>
+      <c r="E8">
+        <v>0.010463172380815</v>
+      </c>
+      <c r="F8">
+        <v>-0.06974941914007043</v>
+      </c>
+      <c r="G8">
+        <v>0.08250920388347566</v>
+      </c>
+      <c r="H8">
+        <v>0.011460831389365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0707577985179009</v>
+        <v>0.08043922677493351</v>
       </c>
       <c r="C9">
-        <v>-0.04694468468793099</v>
+        <v>0.01883222467045496</v>
       </c>
       <c r="D9">
-        <v>-0.06717341928876361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06664143346033267</v>
+      </c>
+      <c r="E9">
+        <v>0.02325426321119332</v>
+      </c>
+      <c r="F9">
+        <v>-0.03312783006720367</v>
+      </c>
+      <c r="G9">
+        <v>0.02973078310878877</v>
+      </c>
+      <c r="H9">
+        <v>-0.04252087862412597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02144036625299371</v>
+        <v>0.04473085229775721</v>
       </c>
       <c r="C10">
-        <v>-0.01957772362089996</v>
+        <v>0.08740294401832169</v>
       </c>
       <c r="D10">
-        <v>0.1685721421269387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1698437969006305</v>
+      </c>
+      <c r="E10">
+        <v>0.03964170712165389</v>
+      </c>
+      <c r="F10">
+        <v>-0.05371314467176763</v>
+      </c>
+      <c r="G10">
+        <v>-0.04362737859556015</v>
+      </c>
+      <c r="H10">
+        <v>0.05528346618136386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06676521658815061</v>
+        <v>0.07303204818428506</v>
       </c>
       <c r="C11">
-        <v>-0.04374511850378682</v>
+        <v>0.01107703293727007</v>
       </c>
       <c r="D11">
-        <v>-0.054185195906839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0656443398363952</v>
+      </c>
+      <c r="E11">
+        <v>-0.0004363265102595942</v>
+      </c>
+      <c r="F11">
+        <v>-0.03397993146592351</v>
+      </c>
+      <c r="G11">
+        <v>0.0450473135150386</v>
+      </c>
+      <c r="H11">
+        <v>-0.06599746717341681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05760376777782436</v>
+        <v>0.06796323717755882</v>
       </c>
       <c r="C12">
-        <v>-0.052983201366961</v>
+        <v>0.0254235092385137</v>
       </c>
       <c r="D12">
-        <v>-0.04570947494566641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05372899606117025</v>
+      </c>
+      <c r="E12">
+        <v>0.01124541094859657</v>
+      </c>
+      <c r="F12">
+        <v>-0.02183760196249525</v>
+      </c>
+      <c r="G12">
+        <v>0.02279414139625056</v>
+      </c>
+      <c r="H12">
+        <v>-0.02991031119384915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06950041435475078</v>
+        <v>0.07086824429354761</v>
       </c>
       <c r="C13">
-        <v>-0.0507398227715897</v>
+        <v>0.02358790201017892</v>
       </c>
       <c r="D13">
-        <v>-0.03563707106645717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04169865930505874</v>
+      </c>
+      <c r="E13">
+        <v>0.005366692511462215</v>
+      </c>
+      <c r="F13">
+        <v>-0.02354303376484652</v>
+      </c>
+      <c r="G13">
+        <v>0.0239655671940667</v>
+      </c>
+      <c r="H13">
+        <v>-0.05497901032343008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03002489343237968</v>
+        <v>0.03946905676266278</v>
       </c>
       <c r="C14">
-        <v>-0.0309900558877798</v>
+        <v>0.02572216165353482</v>
       </c>
       <c r="D14">
-        <v>0.007187560944547993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01620154504186111</v>
+      </c>
+      <c r="E14">
+        <v>0.02526318871724926</v>
+      </c>
+      <c r="F14">
+        <v>-0.01524556110563341</v>
+      </c>
+      <c r="G14">
+        <v>0.01711087914929889</v>
+      </c>
+      <c r="H14">
+        <v>-0.06335282065276086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04154968740228909</v>
+        <v>0.04057525674134037</v>
       </c>
       <c r="C15">
-        <v>-0.01405570349952437</v>
+        <v>0.003124980233197728</v>
       </c>
       <c r="D15">
-        <v>-0.02291026387007129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01110078252794502</v>
+      </c>
+      <c r="E15">
+        <v>0.03453052368422706</v>
+      </c>
+      <c r="F15">
+        <v>-0.00302517205983945</v>
+      </c>
+      <c r="G15">
+        <v>0.03125346909282554</v>
+      </c>
+      <c r="H15">
+        <v>-0.02840504633680752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05702012939175578</v>
+        <v>0.06943844528302431</v>
       </c>
       <c r="C16">
-        <v>-0.04159406723326956</v>
+        <v>0.01490125540311234</v>
       </c>
       <c r="D16">
-        <v>-0.05432400996934676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06498670819028397</v>
+      </c>
+      <c r="E16">
+        <v>0.003844775023973678</v>
+      </c>
+      <c r="F16">
+        <v>-0.02923395135802522</v>
+      </c>
+      <c r="G16">
+        <v>0.01986943884774578</v>
+      </c>
+      <c r="H16">
+        <v>-0.04976021541111376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06419524506987134</v>
+        <v>0.06323237038146953</v>
       </c>
       <c r="C20">
-        <v>-0.03012917290352321</v>
+        <v>0.002282487778343368</v>
       </c>
       <c r="D20">
-        <v>-0.0432957983308741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04138647741136865</v>
+      </c>
+      <c r="E20">
+        <v>0.004189439372380635</v>
+      </c>
+      <c r="F20">
+        <v>-0.02529082819113316</v>
+      </c>
+      <c r="G20">
+        <v>0.01811096381962117</v>
+      </c>
+      <c r="H20">
+        <v>-0.04532511456650871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03302062038354551</v>
+        <v>0.02949592166941399</v>
       </c>
       <c r="C21">
-        <v>-0.009659479902488612</v>
+        <v>-0.004595600086234173</v>
       </c>
       <c r="D21">
-        <v>-0.01226344060642575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01830736111244003</v>
+      </c>
+      <c r="E21">
+        <v>0.04111741113626568</v>
+      </c>
+      <c r="F21">
+        <v>0.01301807255744214</v>
+      </c>
+      <c r="G21">
+        <v>0.01075263891983661</v>
+      </c>
+      <c r="H21">
+        <v>0.04604288007066659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07898380190849996</v>
+        <v>0.06906431662384269</v>
       </c>
       <c r="C22">
-        <v>-0.06971537489384656</v>
+        <v>0.01463995007720403</v>
       </c>
       <c r="D22">
-        <v>-0.151775399188545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1118219726068844</v>
+      </c>
+      <c r="E22">
+        <v>0.6113967732234635</v>
+      </c>
+      <c r="F22">
+        <v>0.05495208394692527</v>
+      </c>
+      <c r="G22">
+        <v>-0.1662319409062763</v>
+      </c>
+      <c r="H22">
+        <v>0.1390761816050816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08008330372571433</v>
+        <v>0.07001876135564923</v>
       </c>
       <c r="C23">
-        <v>-0.06818635852577841</v>
+        <v>0.01299537485781911</v>
       </c>
       <c r="D23">
-        <v>-0.1530403527303671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1126302415609194</v>
+      </c>
+      <c r="E23">
+        <v>0.6134739293533039</v>
+      </c>
+      <c r="F23">
+        <v>0.05430054191943468</v>
+      </c>
+      <c r="G23">
+        <v>-0.1607158108354041</v>
+      </c>
+      <c r="H23">
+        <v>0.1345673252023613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07250002806356289</v>
+        <v>0.07849994176046948</v>
       </c>
       <c r="C24">
-        <v>-0.0523389988964941</v>
+        <v>0.01803576728565376</v>
       </c>
       <c r="D24">
-        <v>-0.05927500097325285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06591478720010356</v>
+      </c>
+      <c r="E24">
+        <v>0.01183544796791042</v>
+      </c>
+      <c r="F24">
+        <v>-0.03722305900818844</v>
+      </c>
+      <c r="G24">
+        <v>0.03732261191720471</v>
+      </c>
+      <c r="H24">
+        <v>-0.031321614067974</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0718770852062828</v>
+        <v>0.07785194866518995</v>
       </c>
       <c r="C25">
-        <v>-0.05607518769133546</v>
+        <v>0.02467003574741536</v>
       </c>
       <c r="D25">
-        <v>-0.05534734178902533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05776385450524325</v>
+      </c>
+      <c r="E25">
+        <v>0.01374687274905924</v>
+      </c>
+      <c r="F25">
+        <v>-0.03209056303485722</v>
+      </c>
+      <c r="G25">
+        <v>0.0436515891969959</v>
+      </c>
+      <c r="H25">
+        <v>-0.0423585310665418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04384865774933241</v>
+        <v>0.04368719337684708</v>
       </c>
       <c r="C26">
-        <v>-0.01488558803796955</v>
+        <v>-0.0004207131987246063</v>
       </c>
       <c r="D26">
-        <v>-0.01056502075372118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02029154272968912</v>
+      </c>
+      <c r="E26">
+        <v>0.04311601125302301</v>
+      </c>
+      <c r="F26">
+        <v>-0.02727512886761455</v>
+      </c>
+      <c r="G26">
+        <v>0.02562199277588259</v>
+      </c>
+      <c r="H26">
+        <v>-0.04248955851492196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.03872834312818352</v>
+        <v>0.0666059717296039</v>
       </c>
       <c r="C28">
-        <v>-0.05696717487415921</v>
+        <v>0.1528578272884176</v>
       </c>
       <c r="D28">
-        <v>0.3071778745094125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2803846697567079</v>
+      </c>
+      <c r="E28">
+        <v>0.04104419706089955</v>
+      </c>
+      <c r="F28">
+        <v>-0.05097752048335435</v>
+      </c>
+      <c r="G28">
+        <v>0.02600502582528164</v>
+      </c>
+      <c r="H28">
+        <v>0.05668096407108376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04409058159223182</v>
+        <v>0.04813125355691607</v>
       </c>
       <c r="C29">
-        <v>-0.04049581887984065</v>
+        <v>0.02842574717965583</v>
       </c>
       <c r="D29">
-        <v>0.0002892983208687689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01732628871077849</v>
+      </c>
+      <c r="E29">
+        <v>0.05459892954556893</v>
+      </c>
+      <c r="F29">
+        <v>-0.01431747613402826</v>
+      </c>
+      <c r="G29">
+        <v>0.007760351903412979</v>
+      </c>
+      <c r="H29">
+        <v>-0.07843791317388388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1291692779293934</v>
+        <v>0.126175724322689</v>
       </c>
       <c r="C30">
-        <v>-0.1013777295207228</v>
+        <v>0.04566209156085534</v>
       </c>
       <c r="D30">
-        <v>-0.1103968659954526</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09098472272009929</v>
+      </c>
+      <c r="E30">
+        <v>0.05623942837502392</v>
+      </c>
+      <c r="F30">
+        <v>-0.01590300843299361</v>
+      </c>
+      <c r="G30">
+        <v>0.06626758866418678</v>
+      </c>
+      <c r="H30">
+        <v>0.04188498201969248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04851372243337383</v>
+        <v>0.04931028650565895</v>
       </c>
       <c r="C31">
-        <v>-0.02648072547148054</v>
+        <v>0.005655428221300216</v>
       </c>
       <c r="D31">
-        <v>-0.01943004673799041</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03613202078125299</v>
+      </c>
+      <c r="E31">
+        <v>0.02150092708635572</v>
+      </c>
+      <c r="F31">
+        <v>-0.009012426821440366</v>
+      </c>
+      <c r="G31">
+        <v>-0.001716235241058195</v>
+      </c>
+      <c r="H31">
+        <v>-0.06965427026773793</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03357836947120402</v>
+        <v>0.03630529168786727</v>
       </c>
       <c r="C32">
-        <v>-0.02513487047306296</v>
+        <v>0.01943588641227281</v>
       </c>
       <c r="D32">
-        <v>-0.03245153120611906</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01509122415289668</v>
+      </c>
+      <c r="E32">
+        <v>0.04568183867000594</v>
+      </c>
+      <c r="F32">
+        <v>0.0034828336246575</v>
+      </c>
+      <c r="G32">
+        <v>0.04565637315592267</v>
+      </c>
+      <c r="H32">
+        <v>-0.006768399221451474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08431866745271246</v>
+        <v>0.09386889676443282</v>
       </c>
       <c r="C33">
-        <v>-0.04752547499931336</v>
+        <v>0.01674646286700897</v>
       </c>
       <c r="D33">
-        <v>-0.0451185004719491</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05313498249794209</v>
+      </c>
+      <c r="E33">
+        <v>0.01064586222899897</v>
+      </c>
+      <c r="F33">
+        <v>-0.001165403123667365</v>
+      </c>
+      <c r="G33">
+        <v>0.008021980065109418</v>
+      </c>
+      <c r="H33">
+        <v>-0.06430240917766772</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05870693051198284</v>
+        <v>0.06584789584705469</v>
       </c>
       <c r="C34">
-        <v>-0.02950633400990868</v>
+        <v>0.003813571822481058</v>
       </c>
       <c r="D34">
-        <v>-0.04906951366571374</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05052429164273994</v>
+      </c>
+      <c r="E34">
+        <v>0.006574153760262711</v>
+      </c>
+      <c r="F34">
+        <v>-0.02089842388696803</v>
+      </c>
+      <c r="G34">
+        <v>0.02845474942069642</v>
+      </c>
+      <c r="H34">
+        <v>-0.05389646530593465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03531777341316426</v>
+        <v>0.03736116018115696</v>
       </c>
       <c r="C35">
-        <v>-0.01388078813086706</v>
+        <v>0.003431713835864071</v>
       </c>
       <c r="D35">
-        <v>-0.02108574347356457</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01884802298361032</v>
+      </c>
+      <c r="E35">
+        <v>0.02324411079547725</v>
+      </c>
+      <c r="F35">
+        <v>0.01601252545938545</v>
+      </c>
+      <c r="G35">
+        <v>-0.004147038214402457</v>
+      </c>
+      <c r="H35">
+        <v>-0.03397720781062141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02602307500887586</v>
+        <v>0.02748259324383407</v>
       </c>
       <c r="C36">
-        <v>-0.02119474126657627</v>
+        <v>0.00979745211810561</v>
       </c>
       <c r="D36">
-        <v>-0.01840844476547796</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02087834109502336</v>
+      </c>
+      <c r="E36">
+        <v>0.03193449424539158</v>
+      </c>
+      <c r="F36">
+        <v>-0.02572191531484913</v>
+      </c>
+      <c r="G36">
+        <v>0.01385322496961123</v>
+      </c>
+      <c r="H36">
+        <v>-0.04331448446497631</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05042223793778113</v>
+        <v>0.04809566812816061</v>
       </c>
       <c r="C38">
-        <v>-0.01098517093056436</v>
+        <v>-0.006530980063461984</v>
       </c>
       <c r="D38">
-        <v>-0.008070572045830747</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02162023852136458</v>
+      </c>
+      <c r="E38">
+        <v>0.05005778459700604</v>
+      </c>
+      <c r="F38">
+        <v>0.001987321362469353</v>
+      </c>
+      <c r="G38">
+        <v>0.004283294451702288</v>
+      </c>
+      <c r="H38">
+        <v>-0.0252262052901164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09036737979518601</v>
+        <v>0.1014275663668712</v>
       </c>
       <c r="C39">
-        <v>-0.07469854338129675</v>
+        <v>0.03939974282638936</v>
       </c>
       <c r="D39">
-        <v>-0.04731098595360619</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06874044819123444</v>
+      </c>
+      <c r="E39">
+        <v>0.002972931757807794</v>
+      </c>
+      <c r="F39">
+        <v>-0.002127436816486654</v>
+      </c>
+      <c r="G39">
+        <v>0.05090851534759352</v>
+      </c>
+      <c r="H39">
+        <v>-0.02009788565708144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08028418117268303</v>
+        <v>0.06173254454105258</v>
       </c>
       <c r="C40">
-        <v>-0.04047128530042018</v>
+        <v>-0.002646755712744255</v>
       </c>
       <c r="D40">
-        <v>-0.01187288328996731</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03472705883056433</v>
+      </c>
+      <c r="E40">
+        <v>0.03718265140975122</v>
+      </c>
+      <c r="F40">
+        <v>0.03602148138333339</v>
+      </c>
+      <c r="G40">
+        <v>0.06117022353141012</v>
+      </c>
+      <c r="H40">
+        <v>0.07255694448585398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04605155988783678</v>
+        <v>0.0472465520427649</v>
       </c>
       <c r="C41">
-        <v>-0.0199090168400686</v>
+        <v>-0.0004062689035575539</v>
       </c>
       <c r="D41">
-        <v>-0.03258986017027451</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03279074278610595</v>
+      </c>
+      <c r="E41">
+        <v>0.002056050844418684</v>
+      </c>
+      <c r="F41">
+        <v>0.01364810008844842</v>
+      </c>
+      <c r="G41">
+        <v>0.007805261017384236</v>
+      </c>
+      <c r="H41">
+        <v>-0.02942578503725549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05424109061698516</v>
+        <v>0.06050915937222007</v>
       </c>
       <c r="C43">
-        <v>-0.03271745573068813</v>
+        <v>0.01419878844297104</v>
       </c>
       <c r="D43">
-        <v>-0.006521225050935686</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03213144374103452</v>
+      </c>
+      <c r="E43">
+        <v>0.01800721975993329</v>
+      </c>
+      <c r="F43">
+        <v>-0.01381172979462584</v>
+      </c>
+      <c r="G43">
+        <v>-0.01423664765172225</v>
+      </c>
+      <c r="H43">
+        <v>-0.06347000747076137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09817234809870971</v>
+        <v>0.09584569132144301</v>
       </c>
       <c r="C44">
-        <v>-0.03620486948915363</v>
+        <v>-0.000402945020552532</v>
       </c>
       <c r="D44">
-        <v>-0.04871196260748639</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05303383213755276</v>
+      </c>
+      <c r="E44">
+        <v>0.07297480272587474</v>
+      </c>
+      <c r="F44">
+        <v>-0.07696967116688753</v>
+      </c>
+      <c r="G44">
+        <v>0.07614172771903489</v>
+      </c>
+      <c r="H44">
+        <v>-0.05287320254267371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02463578263917234</v>
+        <v>0.03555209355815567</v>
       </c>
       <c r="C46">
-        <v>-0.02303709076025104</v>
+        <v>0.01226060119509403</v>
       </c>
       <c r="D46">
-        <v>-0.0340221513154819</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0401947574098392</v>
+      </c>
+      <c r="E46">
+        <v>0.02908920371736663</v>
+      </c>
+      <c r="F46">
+        <v>-0.01596297709280124</v>
+      </c>
+      <c r="G46">
+        <v>-0.004756347773169742</v>
+      </c>
+      <c r="H46">
+        <v>-0.03234572937230966</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03031084307616115</v>
+        <v>0.04015051398461852</v>
       </c>
       <c r="C47">
-        <v>-0.02366464693354673</v>
+        <v>0.01883934447100922</v>
       </c>
       <c r="D47">
-        <v>0.001601901170605166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01215106694345984</v>
+      </c>
+      <c r="E47">
+        <v>0.03999246743009573</v>
+      </c>
+      <c r="F47">
+        <v>0.007669440699929453</v>
+      </c>
+      <c r="G47">
+        <v>-0.02818306523327683</v>
+      </c>
+      <c r="H47">
+        <v>-0.03491520861047614</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03639527984046105</v>
+        <v>0.03951263732509205</v>
       </c>
       <c r="C48">
-        <v>-0.02852068073667802</v>
+        <v>0.01313448719559242</v>
       </c>
       <c r="D48">
-        <v>-0.02725263145411061</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02335779764392375</v>
+      </c>
+      <c r="E48">
+        <v>0.03971619381057104</v>
+      </c>
+      <c r="F48">
+        <v>-0.007619249810426079</v>
+      </c>
+      <c r="G48">
+        <v>0.02100753154114691</v>
+      </c>
+      <c r="H48">
+        <v>-0.02588675182590846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1622903135037818</v>
+        <v>0.1977399133302711</v>
       </c>
       <c r="C49">
-        <v>-0.05441669656809076</v>
+        <v>0.03353615061857843</v>
       </c>
       <c r="D49">
-        <v>-0.005804321191196029</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02997883604560716</v>
+      </c>
+      <c r="E49">
+        <v>-0.1688033562535209</v>
+      </c>
+      <c r="F49">
+        <v>-0.04408518101304879</v>
+      </c>
+      <c r="G49">
+        <v>-0.1480647357700863</v>
+      </c>
+      <c r="H49">
+        <v>0.2228627631774694</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04375184497832173</v>
+        <v>0.0456690336087865</v>
       </c>
       <c r="C50">
-        <v>-0.02620229837010855</v>
+        <v>0.005542084696752059</v>
       </c>
       <c r="D50">
-        <v>-0.03534190019593599</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04180066665447948</v>
+      </c>
+      <c r="E50">
+        <v>0.02969246318704885</v>
+      </c>
+      <c r="F50">
+        <v>-0.003178065783455892</v>
+      </c>
+      <c r="G50">
+        <v>0.0006574380809307174</v>
+      </c>
+      <c r="H50">
+        <v>-0.07240348796757851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02370027700658013</v>
+        <v>0.03504704861671976</v>
       </c>
       <c r="C51">
-        <v>-0.005139735466358475</v>
+        <v>0.005391079257449563</v>
       </c>
       <c r="D51">
-        <v>0.0005709951984552601</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.002934934529299245</v>
+      </c>
+      <c r="E51">
+        <v>0.01228936168733238</v>
+      </c>
+      <c r="F51">
+        <v>-0.01113726862681583</v>
+      </c>
+      <c r="G51">
+        <v>-0.01714758113101885</v>
+      </c>
+      <c r="H51">
+        <v>0.01704011747753421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.150614377739114</v>
+        <v>0.1603951061915858</v>
       </c>
       <c r="C53">
-        <v>-0.0845019186858449</v>
+        <v>0.05003776621979501</v>
       </c>
       <c r="D53">
-        <v>0.00884047419734286</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03095546577301164</v>
+      </c>
+      <c r="E53">
+        <v>-0.03046038445122279</v>
+      </c>
+      <c r="F53">
+        <v>-0.0008668393936799878</v>
+      </c>
+      <c r="G53">
+        <v>0.0009906041334134849</v>
+      </c>
+      <c r="H53">
+        <v>-0.2041405334896803</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05784278087498169</v>
+        <v>0.05780364311754826</v>
       </c>
       <c r="C54">
-        <v>-0.0323965447177619</v>
+        <v>0.01548073498780365</v>
       </c>
       <c r="D54">
-        <v>-0.02157187963812326</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01963407655993897</v>
+      </c>
+      <c r="E54">
+        <v>0.0518672760078169</v>
+      </c>
+      <c r="F54">
+        <v>-0.01695562776362512</v>
+      </c>
+      <c r="G54">
+        <v>0.05624776197629966</v>
+      </c>
+      <c r="H54">
+        <v>-0.04291146255484823</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09774970582798011</v>
+        <v>0.1010375214479188</v>
       </c>
       <c r="C55">
-        <v>-0.05417091424065207</v>
+        <v>0.02646264808660446</v>
       </c>
       <c r="D55">
-        <v>-0.01121745552758773</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03235527133091582</v>
+      </c>
+      <c r="E55">
+        <v>-0.001895350940275782</v>
+      </c>
+      <c r="F55">
+        <v>-0.01591885870300339</v>
+      </c>
+      <c r="G55">
+        <v>0.02111316892587106</v>
+      </c>
+      <c r="H55">
+        <v>-0.1560794300202586</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1464953716077144</v>
+        <v>0.1549940057817181</v>
       </c>
       <c r="C56">
-        <v>-0.08817220321146781</v>
+        <v>0.0463679263788514</v>
       </c>
       <c r="D56">
-        <v>0.005556884876801589</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04738431171283839</v>
+      </c>
+      <c r="E56">
+        <v>-0.01373182274353536</v>
+      </c>
+      <c r="F56">
+        <v>-0.02251670250724219</v>
+      </c>
+      <c r="G56">
+        <v>0.009829049839083564</v>
+      </c>
+      <c r="H56">
+        <v>-0.207195991595984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1313270202291891</v>
+        <v>0.09886380735877551</v>
       </c>
       <c r="C58">
-        <v>0.01710654390108976</v>
+        <v>-0.06933721921213185</v>
       </c>
       <c r="D58">
-        <v>-0.05129469644800432</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.01945850911865965</v>
+      </c>
+      <c r="E58">
+        <v>0.1223419787860769</v>
+      </c>
+      <c r="F58">
+        <v>-0.0282213780000012</v>
+      </c>
+      <c r="G58">
+        <v>-0.07551937105825199</v>
+      </c>
+      <c r="H58">
+        <v>0.1767955996593295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1142690421449235</v>
+        <v>0.1451989503060898</v>
       </c>
       <c r="C59">
-        <v>-0.07081985857395789</v>
+        <v>0.1696310426952033</v>
       </c>
       <c r="D59">
-        <v>0.4080140623771546</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3341326883466497</v>
+      </c>
+      <c r="E59">
+        <v>0.03795468703513347</v>
+      </c>
+      <c r="F59">
+        <v>-0.00222468285335324</v>
+      </c>
+      <c r="G59">
+        <v>0.008358860116978312</v>
+      </c>
+      <c r="H59">
+        <v>-0.01438667120217553</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2047712634565963</v>
+        <v>0.2381210490137836</v>
       </c>
       <c r="C60">
-        <v>-0.1039139804364924</v>
+        <v>0.0632693869148815</v>
       </c>
       <c r="D60">
-        <v>-0.003550414790696688</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.05300357338700808</v>
+      </c>
+      <c r="E60">
+        <v>-0.1123465679816254</v>
+      </c>
+      <c r="F60">
+        <v>-0.05104539629454223</v>
+      </c>
+      <c r="G60">
+        <v>-0.03264061737138661</v>
+      </c>
+      <c r="H60">
+        <v>0.1449684018006198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07820318544046985</v>
+        <v>0.0858441837551496</v>
       </c>
       <c r="C61">
-        <v>-0.04971364369396146</v>
+        <v>0.02370140317334039</v>
       </c>
       <c r="D61">
-        <v>-0.02919884018693343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04683285215449704</v>
+      </c>
+      <c r="E61">
+        <v>0.006879286092831042</v>
+      </c>
+      <c r="F61">
+        <v>-0.01244950061611287</v>
+      </c>
+      <c r="G61">
+        <v>0.03398937025975417</v>
+      </c>
+      <c r="H61">
+        <v>-0.06411594321726738</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.131653191637968</v>
+        <v>0.1365680866945041</v>
       </c>
       <c r="C62">
-        <v>-0.05592906053705924</v>
+        <v>0.0166578266735552</v>
       </c>
       <c r="D62">
-        <v>0.007688801471500932</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04414722546043543</v>
+      </c>
+      <c r="E62">
+        <v>-0.04766865540607804</v>
+      </c>
+      <c r="F62">
+        <v>0.02027053389184912</v>
+      </c>
+      <c r="G62">
+        <v>0.03416028841908145</v>
+      </c>
+      <c r="H62">
+        <v>-0.1975800277764406</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05006168576368442</v>
+        <v>0.0478763976967635</v>
       </c>
       <c r="C63">
-        <v>-0.0255892740235351</v>
+        <v>0.008375660359729609</v>
       </c>
       <c r="D63">
-        <v>-0.0273623532828884</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02566901795595801</v>
+      </c>
+      <c r="E63">
+        <v>0.04059205270858342</v>
+      </c>
+      <c r="F63">
+        <v>0.0006928875339294098</v>
+      </c>
+      <c r="G63">
+        <v>0.03667304777028878</v>
+      </c>
+      <c r="H63">
+        <v>-0.03441135349735458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1072254978780339</v>
+        <v>0.1110594062047385</v>
       </c>
       <c r="C64">
-        <v>-0.04545678994005724</v>
+        <v>0.02003658903420882</v>
       </c>
       <c r="D64">
-        <v>-0.01745484730237416</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0286611805776781</v>
+      </c>
+      <c r="E64">
+        <v>0.0402175604925451</v>
+      </c>
+      <c r="F64">
+        <v>-0.04668945478452387</v>
+      </c>
+      <c r="G64">
+        <v>0.06254786751152114</v>
+      </c>
+      <c r="H64">
+        <v>-0.02659497914743755</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.125502706712496</v>
+        <v>0.1304203842235848</v>
       </c>
       <c r="C65">
-        <v>-0.06992329172599243</v>
+        <v>0.04660647825359111</v>
       </c>
       <c r="D65">
-        <v>-0.004678122678582857</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.02043254315104129</v>
+      </c>
+      <c r="E65">
+        <v>-0.009430385333287234</v>
+      </c>
+      <c r="F65">
+        <v>-0.03249113738215457</v>
+      </c>
+      <c r="G65">
+        <v>0.05827022179567143</v>
+      </c>
+      <c r="H65">
+        <v>0.1520864591850262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1486569799856548</v>
+        <v>0.152795209032638</v>
       </c>
       <c r="C66">
-        <v>-0.08830079116212029</v>
+        <v>0.0288462496291529</v>
       </c>
       <c r="D66">
-        <v>-0.08962733152116911</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1073324436639545</v>
+      </c>
+      <c r="E66">
+        <v>-0.0253678018042145</v>
+      </c>
+      <c r="F66">
+        <v>-0.006194935092958205</v>
+      </c>
+      <c r="G66">
+        <v>0.07244837332119589</v>
+      </c>
+      <c r="H66">
+        <v>-0.08464186309130871</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07913100027264208</v>
+        <v>0.08713952406154324</v>
       </c>
       <c r="C67">
-        <v>-0.01883513033761461</v>
+        <v>-0.001577256327944055</v>
       </c>
       <c r="D67">
-        <v>-0.01471848660148413</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03333674515302741</v>
+      </c>
+      <c r="E67">
+        <v>0.02134414743701264</v>
+      </c>
+      <c r="F67">
+        <v>-0.01398857074330676</v>
+      </c>
+      <c r="G67">
+        <v>-0.01110049546849843</v>
+      </c>
+      <c r="H67">
+        <v>-0.02191615531911921</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04821108463340602</v>
+        <v>0.05996417318532349</v>
       </c>
       <c r="C68">
-        <v>-0.04012590330901613</v>
+        <v>0.1190823155953806</v>
       </c>
       <c r="D68">
-        <v>0.2599825007139027</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2473873646195991</v>
+      </c>
+      <c r="E68">
+        <v>0.04767741720563735</v>
+      </c>
+      <c r="F68">
+        <v>-0.01120640312836766</v>
+      </c>
+      <c r="G68">
+        <v>0.001552377229775292</v>
+      </c>
+      <c r="H68">
+        <v>-0.02061396871231976</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05422722682747132</v>
+        <v>0.05277167583557644</v>
       </c>
       <c r="C69">
-        <v>-0.02371223443260702</v>
+        <v>0.003488790997589057</v>
       </c>
       <c r="D69">
-        <v>-0.01909697384411229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02190372443557595</v>
+      </c>
+      <c r="E69">
+        <v>0.02321576101208729</v>
+      </c>
+      <c r="F69">
+        <v>0.01156222459867136</v>
+      </c>
+      <c r="G69">
+        <v>0.001645001077768079</v>
+      </c>
+      <c r="H69">
+        <v>-0.04603685651609803</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.00681708348768292</v>
+        <v>0.03108682330306916</v>
       </c>
       <c r="C70">
-        <v>0.001247533407075435</v>
+        <v>0.005237024507127638</v>
       </c>
       <c r="D70">
-        <v>0.01219064809615969</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.006161470793611747</v>
+      </c>
+      <c r="E70">
+        <v>-0.02422383672229836</v>
+      </c>
+      <c r="F70">
+        <v>0.007822239164401612</v>
+      </c>
+      <c r="G70">
+        <v>-0.02654305473304045</v>
+      </c>
+      <c r="H70">
+        <v>0.03558288536400452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04503402418607799</v>
+        <v>0.06539779348636308</v>
       </c>
       <c r="C71">
-        <v>-0.03750772122764835</v>
+        <v>0.1333102743968161</v>
       </c>
       <c r="D71">
-        <v>0.2909906526012923</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2734127660809987</v>
+      </c>
+      <c r="E71">
+        <v>0.0480798740236888</v>
+      </c>
+      <c r="F71">
+        <v>-0.03792717522911032</v>
+      </c>
+      <c r="G71">
+        <v>-0.0008505659745657508</v>
+      </c>
+      <c r="H71">
+        <v>-0.01406708362558058</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1373797821283011</v>
+        <v>0.142269996074293</v>
       </c>
       <c r="C72">
-        <v>-0.06388074670097385</v>
+        <v>0.03215523648375004</v>
       </c>
       <c r="D72">
-        <v>0.01625119392321005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008597053137189789</v>
+      </c>
+      <c r="E72">
+        <v>-0.04684104463894882</v>
+      </c>
+      <c r="F72">
+        <v>0.1598156503614819</v>
+      </c>
+      <c r="G72">
+        <v>0.1110416927419369</v>
+      </c>
+      <c r="H72">
+        <v>-4.252154910645872e-06</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2811275974394313</v>
+        <v>0.2853373941821733</v>
       </c>
       <c r="C73">
-        <v>-0.1003242369199514</v>
+        <v>0.008124222411497795</v>
       </c>
       <c r="D73">
-        <v>-0.04118151886946611</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09672112342320752</v>
+      </c>
+      <c r="E73">
+        <v>-0.257064167794643</v>
+      </c>
+      <c r="F73">
+        <v>-0.06874402492815479</v>
+      </c>
+      <c r="G73">
+        <v>-0.2628399511835735</v>
+      </c>
+      <c r="H73">
+        <v>0.3949582477125939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07630831354267231</v>
+        <v>0.08881954232863035</v>
       </c>
       <c r="C74">
-        <v>-0.07425299414077956</v>
+        <v>0.04649636926277405</v>
       </c>
       <c r="D74">
-        <v>-0.004997191050989628</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04915990164780521</v>
+      </c>
+      <c r="E74">
+        <v>-0.007097420505751249</v>
+      </c>
+      <c r="F74">
+        <v>0.000251989117978671</v>
+      </c>
+      <c r="G74">
+        <v>-0.03070762645597593</v>
+      </c>
+      <c r="H74">
+        <v>-0.1360653631873296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09997225683671726</v>
+        <v>0.1026280516848002</v>
       </c>
       <c r="C75">
-        <v>-0.05323625290612732</v>
+        <v>0.01869260682680772</v>
       </c>
       <c r="D75">
-        <v>-0.00591251503882294</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02802297122656263</v>
+      </c>
+      <c r="E75">
+        <v>0.001220604181769061</v>
+      </c>
+      <c r="F75">
+        <v>0.0008021499136076854</v>
+      </c>
+      <c r="G75">
+        <v>-0.006582698406183536</v>
+      </c>
+      <c r="H75">
+        <v>-0.09895209068921913</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.126430743841182</v>
+        <v>0.1381468390306431</v>
       </c>
       <c r="C76">
-        <v>-0.07454857471966357</v>
+        <v>0.03724140572807862</v>
       </c>
       <c r="D76">
-        <v>-0.02159363331539715</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05986753318021107</v>
+      </c>
+      <c r="E76">
+        <v>0.01018244199035967</v>
+      </c>
+      <c r="F76">
+        <v>-0.03102814469975746</v>
+      </c>
+      <c r="G76">
+        <v>0.01318349239912037</v>
+      </c>
+      <c r="H76">
+        <v>-0.2299587127565413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1168810530343874</v>
+        <v>0.09998808284390576</v>
       </c>
       <c r="C77">
-        <v>-0.04095588544884252</v>
+        <v>-0.009363884717038565</v>
       </c>
       <c r="D77">
-        <v>-0.08206845575626424</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04448908535087889</v>
+      </c>
+      <c r="E77">
+        <v>0.0386554003790147</v>
+      </c>
+      <c r="F77">
+        <v>-0.07090440055457092</v>
+      </c>
+      <c r="G77">
+        <v>0.7969597121130632</v>
+      </c>
+      <c r="H77">
+        <v>0.33595979523438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1062528939084733</v>
+        <v>0.1521781009418574</v>
       </c>
       <c r="C78">
-        <v>-0.0465468300768137</v>
+        <v>0.03146198866653954</v>
       </c>
       <c r="D78">
-        <v>-0.08564817633346339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08336078373142262</v>
+      </c>
+      <c r="E78">
+        <v>0.05808527185733527</v>
+      </c>
+      <c r="F78">
+        <v>-0.05669040391271712</v>
+      </c>
+      <c r="G78">
+        <v>0.03356225640863499</v>
+      </c>
+      <c r="H78">
+        <v>0.07991439759453964</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1388147755233781</v>
+        <v>0.1438631781945505</v>
       </c>
       <c r="C79">
-        <v>-0.07430690587268871</v>
+        <v>0.02925478197909544</v>
       </c>
       <c r="D79">
-        <v>-0.02087742479452437</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05178872908398898</v>
+      </c>
+      <c r="E79">
+        <v>-0.01807316770667146</v>
+      </c>
+      <c r="F79">
+        <v>-0.01599420691298013</v>
+      </c>
+      <c r="G79">
+        <v>0.02217303862654465</v>
+      </c>
+      <c r="H79">
+        <v>-0.1716925635825821</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04154645049813391</v>
+        <v>0.0423793809920545</v>
       </c>
       <c r="C80">
-        <v>-0.02368765073149855</v>
+        <v>0.01143341495733539</v>
       </c>
       <c r="D80">
-        <v>-0.02771052860100119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01691365728229191</v>
+      </c>
+      <c r="E80">
+        <v>-0.04217231900785847</v>
+      </c>
+      <c r="F80">
+        <v>-0.007844882617132643</v>
+      </c>
+      <c r="G80">
+        <v>-0.01434697825068502</v>
+      </c>
+      <c r="H80">
+        <v>-0.03638900385553183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1216549752740859</v>
+        <v>0.1255414497778839</v>
       </c>
       <c r="C81">
-        <v>-0.07460336488066778</v>
+        <v>0.03736493489543588</v>
       </c>
       <c r="D81">
-        <v>-0.01799421513370936</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03564073113081377</v>
+      </c>
+      <c r="E81">
+        <v>0.005417974544286781</v>
+      </c>
+      <c r="F81">
+        <v>-0.01718769480738734</v>
+      </c>
+      <c r="G81">
+        <v>-0.003812771493417073</v>
+      </c>
+      <c r="H81">
+        <v>-0.1499306394460897</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1285259470657589</v>
+        <v>0.1309267482491703</v>
       </c>
       <c r="C82">
-        <v>-0.07392434739429224</v>
+        <v>0.03702809293657636</v>
       </c>
       <c r="D82">
-        <v>-0.00790924014155312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03881349953809142</v>
+      </c>
+      <c r="E82">
+        <v>-0.02345051481491684</v>
+      </c>
+      <c r="F82">
+        <v>-0.0372230218205071</v>
+      </c>
+      <c r="G82">
+        <v>-0.0006989157064544393</v>
+      </c>
+      <c r="H82">
+        <v>-0.2244395473774803</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06499420392194094</v>
+        <v>0.08174621376604352</v>
       </c>
       <c r="C83">
-        <v>0.01380102994126123</v>
+        <v>-0.02572006049339096</v>
       </c>
       <c r="D83">
-        <v>-0.02021271092401661</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0163449128200748</v>
+      </c>
+      <c r="E83">
+        <v>0.01357572269853511</v>
+      </c>
+      <c r="F83">
+        <v>-0.03440512128109197</v>
+      </c>
+      <c r="G83">
+        <v>-0.04487787074336376</v>
+      </c>
+      <c r="H83">
+        <v>0.03312740594158334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03040722702268935</v>
+        <v>0.03433338507182251</v>
       </c>
       <c r="C84">
-        <v>-0.04026670415661462</v>
+        <v>0.01694883806325404</v>
       </c>
       <c r="D84">
-        <v>-0.03494133896599821</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04669603361370076</v>
+      </c>
+      <c r="E84">
+        <v>0.02150827080909175</v>
+      </c>
+      <c r="F84">
+        <v>0.03662046636500438</v>
+      </c>
+      <c r="G84">
+        <v>-0.02860033600809859</v>
+      </c>
+      <c r="H84">
+        <v>-0.02543594916573969</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1150734572103684</v>
+        <v>0.121305628499576</v>
       </c>
       <c r="C85">
-        <v>-0.04336446167013615</v>
+        <v>0.01037239577766667</v>
       </c>
       <c r="D85">
-        <v>-0.04651894869595528</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.04238573989136325</v>
+      </c>
+      <c r="E85">
+        <v>0.01527074987521246</v>
+      </c>
+      <c r="F85">
+        <v>-0.03512699336755942</v>
+      </c>
+      <c r="G85">
+        <v>-0.007562506596201689</v>
+      </c>
+      <c r="H85">
+        <v>-0.1417451025438294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05046439238926331</v>
+        <v>0.05448212729123395</v>
       </c>
       <c r="C86">
-        <v>-0.02635735541125614</v>
+        <v>0.004281908459633712</v>
       </c>
       <c r="D86">
-        <v>-0.06508568789878232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03745980006558575</v>
+      </c>
+      <c r="E86">
+        <v>0.03970267862494301</v>
+      </c>
+      <c r="F86">
+        <v>-0.02670953414663507</v>
+      </c>
+      <c r="G86">
+        <v>-0.02565637109646503</v>
+      </c>
+      <c r="H86">
+        <v>0.05823533438428879</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1211729055950419</v>
+        <v>0.1250943560393911</v>
       </c>
       <c r="C87">
-        <v>-0.08351558246678772</v>
+        <v>0.02998806909384817</v>
       </c>
       <c r="D87">
-        <v>-0.06349143161972792</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.073795866489172</v>
+      </c>
+      <c r="E87">
+        <v>0.02216237185079041</v>
+      </c>
+      <c r="F87">
+        <v>-0.02479619219686047</v>
+      </c>
+      <c r="G87">
+        <v>0.1485415423016765</v>
+      </c>
+      <c r="H87">
+        <v>0.07060675577553908</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05415447996280484</v>
+        <v>0.06412001879503108</v>
       </c>
       <c r="C88">
-        <v>-0.03745431956532067</v>
+        <v>0.01796593084631692</v>
       </c>
       <c r="D88">
-        <v>-0.02407016531683596</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04431814353172366</v>
+      </c>
+      <c r="E88">
+        <v>0.003003926040626762</v>
+      </c>
+      <c r="F88">
+        <v>-0.02146029781685515</v>
+      </c>
+      <c r="G88">
+        <v>0.01136718125646341</v>
+      </c>
+      <c r="H88">
+        <v>-0.0491609138854654</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07613180231322043</v>
+        <v>0.1052577289123956</v>
       </c>
       <c r="C89">
-        <v>-0.06063410127411956</v>
+        <v>0.171445791563989</v>
       </c>
       <c r="D89">
-        <v>0.3204150395326332</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3205865755399104</v>
+      </c>
+      <c r="E89">
+        <v>0.06147216676768008</v>
+      </c>
+      <c r="F89">
+        <v>-0.06989997389143141</v>
+      </c>
+      <c r="G89">
+        <v>-0.02291560417223028</v>
+      </c>
+      <c r="H89">
+        <v>-0.0213111804803755</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05861393420102309</v>
+        <v>0.07974906806765931</v>
       </c>
       <c r="C90">
-        <v>-0.04683288364556732</v>
+        <v>0.1349005457548083</v>
       </c>
       <c r="D90">
-        <v>0.2836467405806936</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2651873063023292</v>
+      </c>
+      <c r="E90">
+        <v>0.05696101611329316</v>
+      </c>
+      <c r="F90">
+        <v>-0.02739583053176075</v>
+      </c>
+      <c r="G90">
+        <v>0.03293833058163535</v>
+      </c>
+      <c r="H90">
+        <v>0.01626522251932649</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08873295189917992</v>
+        <v>0.08987108008194908</v>
       </c>
       <c r="C91">
-        <v>-0.05696734948649042</v>
+        <v>0.02322747420822921</v>
       </c>
       <c r="D91">
-        <v>-0.01108112674863618</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03683594146799685</v>
+      </c>
+      <c r="E91">
+        <v>0.006683021679745628</v>
+      </c>
+      <c r="F91">
+        <v>-0.003564438897522835</v>
+      </c>
+      <c r="G91">
+        <v>-0.02043748333740978</v>
+      </c>
+      <c r="H91">
+        <v>-0.09002184634836889</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.06053747518895423</v>
+        <v>0.08105285214734755</v>
       </c>
       <c r="C92">
-        <v>-0.05638045695157067</v>
+        <v>0.1584089544666709</v>
       </c>
       <c r="D92">
-        <v>0.3326349234617498</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3087146296428923</v>
+      </c>
+      <c r="E92">
+        <v>0.05116068896340475</v>
+      </c>
+      <c r="F92">
+        <v>-0.03662797011048353</v>
+      </c>
+      <c r="G92">
+        <v>0.006753281489252704</v>
+      </c>
+      <c r="H92">
+        <v>-0.02219493130165841</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05146802850715444</v>
+        <v>0.07682923011897386</v>
       </c>
       <c r="C93">
-        <v>-0.0503729092208664</v>
+        <v>0.1496124270179984</v>
       </c>
       <c r="D93">
-        <v>0.3005266791542717</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2789171326381495</v>
+      </c>
+      <c r="E93">
+        <v>0.02970052961408719</v>
+      </c>
+      <c r="F93">
+        <v>-0.02788786813339681</v>
+      </c>
+      <c r="G93">
+        <v>0.0164758287672844</v>
+      </c>
+      <c r="H93">
+        <v>-0.003311601922519922</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1273971273375873</v>
+        <v>0.1257551379810214</v>
       </c>
       <c r="C94">
-        <v>-0.04124739119026068</v>
+        <v>-0.001297558117196708</v>
       </c>
       <c r="D94">
-        <v>-0.04319464573267162</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04729860449993143</v>
+      </c>
+      <c r="E94">
+        <v>-0.01998048259435338</v>
+      </c>
+      <c r="F94">
+        <v>-0.0190695545259656</v>
+      </c>
+      <c r="G94">
+        <v>-0.03663323336855111</v>
+      </c>
+      <c r="H94">
+        <v>-0.1087569816889969</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1186998043199563</v>
+        <v>0.1293745816109586</v>
       </c>
       <c r="C95">
-        <v>-0.03531420709818259</v>
+        <v>-0.003980319509322946</v>
       </c>
       <c r="D95">
-        <v>-0.0572478875482318</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06348137578559955</v>
+      </c>
+      <c r="E95">
+        <v>0.004138135940360772</v>
+      </c>
+      <c r="F95">
+        <v>-0.05401271936292697</v>
+      </c>
+      <c r="G95">
+        <v>0.04795228588265781</v>
+      </c>
+      <c r="H95">
+        <v>0.08953022656289665</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2241538509126402</v>
+        <v>0.1940034205649646</v>
       </c>
       <c r="C97">
-        <v>-0.06076189235350777</v>
+        <v>-0.0009449562637588486</v>
       </c>
       <c r="D97">
-        <v>0.1253166425460255</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.05944438786193946</v>
+      </c>
+      <c r="E97">
+        <v>-0.05575498727814093</v>
+      </c>
+      <c r="F97">
+        <v>0.9385968042939707</v>
+      </c>
+      <c r="G97">
+        <v>0.05269032001802776</v>
+      </c>
+      <c r="H97">
+        <v>0.03044140501837089</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2397105330405981</v>
+        <v>0.2739339308434187</v>
       </c>
       <c r="C98">
-        <v>-0.07089429747306544</v>
+        <v>0.02489336373008193</v>
       </c>
       <c r="D98">
-        <v>-0.009071683640546845</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04055598421247308</v>
+      </c>
+      <c r="E98">
+        <v>-0.197386151530576</v>
+      </c>
+      <c r="F98">
+        <v>-0.04192627244031535</v>
+      </c>
+      <c r="G98">
+        <v>-0.3148776612267244</v>
+      </c>
+      <c r="H98">
+        <v>0.1977544238818571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4437152385940816</v>
+        <v>0.2846740658739201</v>
       </c>
       <c r="C99">
-        <v>0.879898529828385</v>
+        <v>-0.8748838806584867</v>
       </c>
       <c r="D99">
-        <v>0.03077015708383399</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.3445644646635381</v>
+      </c>
+      <c r="E99">
+        <v>0.06407596021287933</v>
+      </c>
+      <c r="F99">
+        <v>-0.07391356850636607</v>
+      </c>
+      <c r="G99">
+        <v>0.01479531081847238</v>
+      </c>
+      <c r="H99">
+        <v>-0.06825988964992384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04414653359370671</v>
+        <v>0.04820345918451827</v>
       </c>
       <c r="C101">
-        <v>-0.04078252437251759</v>
+        <v>0.02864417993330732</v>
       </c>
       <c r="D101">
-        <v>0.0001093917735962886</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01772398490616376</v>
+      </c>
+      <c r="E101">
+        <v>0.05435616204166606</v>
+      </c>
+      <c r="F101">
+        <v>-0.0144149444119962</v>
+      </c>
+      <c r="G101">
+        <v>0.006643918779439502</v>
+      </c>
+      <c r="H101">
+        <v>-0.07715685367928982</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
